--- a/Jogos_do_Dia/2023-01-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.94</v>
+        <v>2.15</v>
       </c>
       <c r="G2" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
         <v>1.05</v>
@@ -653,10 +653,10 @@
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="N2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="G3" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
         <v>1.08</v>
@@ -763,10 +763,10 @@
         <v>2.75</v>
       </c>
       <c r="M3" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="N3" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="I4" t="n">
         <v>1.04</v>
@@ -873,10 +873,10 @@
         <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="N4" t="n">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="I5" t="n">
         <v>1.04</v>
@@ -983,10 +983,10 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="N5" t="n">
-        <v>2.17</v>
+        <v>2.03</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1093,10 +1093,10 @@
         <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="N6" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="G8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="I8" t="n">
         <v>1.05</v>
@@ -1313,10 +1313,10 @@
         <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
         <v>1.09</v>
@@ -1423,10 +1423,10 @@
         <v>2.7</v>
       </c>
       <c r="M9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O9" t="n">
         <v>1.53</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
         <v>1.07</v>
@@ -1533,10 +1533,10 @@
         <v>3.1</v>
       </c>
       <c r="M10" t="n">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="N10" t="n">
-        <v>1.76</v>
+        <v>1.63</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -1625,10 +1625,10 @@
         <v>2.3</v>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I11" t="n">
         <v>1.08</v>
@@ -1643,10 +1643,10 @@
         <v>2.75</v>
       </c>
       <c r="M11" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="N11" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>

--- a/Jogos_do_Dia/2023-01-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -635,10 +635,10 @@
         <v>2.15</v>
       </c>
       <c r="G2" t="n">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.17</v>
       </c>
       <c r="I2" t="n">
         <v>1.05</v>
@@ -653,10 +653,10 @@
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="N2" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="I3" t="n">
         <v>1.08</v>
@@ -763,10 +763,10 @@
         <v>2.75</v>
       </c>
       <c r="M3" t="n">
-        <v>2.37</v>
+        <v>2.23</v>
       </c>
       <c r="N3" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -826,7 +826,7 @@
         <v>3.64</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="4">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.3</v>
+        <v>2.93</v>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="H4" t="n">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
       <c r="I4" t="n">
         <v>1.04</v>
@@ -873,10 +873,10 @@
         <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="N4" t="n">
-        <v>2.32</v>
+        <v>1.99</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="I5" t="n">
         <v>1.04</v>
@@ -983,10 +983,10 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="N5" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="G6" t="n">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1093,10 +1093,10 @@
         <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="N6" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.8</v>
+        <v>3.97</v>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H8" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="I8" t="n">
         <v>1.05</v>
@@ -1313,10 +1313,10 @@
         <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="N8" t="n">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.25</v>
+        <v>2.48</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>3.08</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>2.77</v>
       </c>
       <c r="I9" t="n">
         <v>1.09</v>
@@ -1426,7 +1426,7 @@
         <v>2.4</v>
       </c>
       <c r="N9" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="O9" t="n">
         <v>1.53</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="I10" t="n">
         <v>1.07</v>
@@ -1533,10 +1533,10 @@
         <v>3.1</v>
       </c>
       <c r="M10" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="N10" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>3.17</v>
       </c>
       <c r="H11" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="I11" t="n">
         <v>1.08</v>
@@ -1643,10 +1643,10 @@
         <v>2.75</v>
       </c>
       <c r="M11" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="N11" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>

--- a/Jogos_do_Dia/2023-01-09_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-09_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="G2" t="n">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="H2" t="n">
-        <v>3.17</v>
+        <v>3.34</v>
       </c>
       <c r="I2" t="n">
         <v>1.05</v>
@@ -653,10 +653,10 @@
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="N2" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="G3" t="n">
-        <v>2.89</v>
+        <v>3.13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.98</v>
+        <v>3.13</v>
       </c>
       <c r="I3" t="n">
         <v>1.08</v>
@@ -763,10 +763,10 @@
         <v>2.75</v>
       </c>
       <c r="M3" t="n">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="N3" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.93</v>
+        <v>3.01</v>
       </c>
       <c r="G4" t="n">
-        <v>3.47</v>
+        <v>3.58</v>
       </c>
       <c r="H4" t="n">
         <v>2.27</v>
@@ -873,10 +873,10 @@
         <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="N4" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="H5" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="I5" t="n">
         <v>1.04</v>
@@ -983,10 +983,10 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.12</v>
+        <v>2.23</v>
       </c>
       <c r="G6" t="n">
-        <v>3.52</v>
+        <v>3.46</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.17</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1093,10 +1093,10 @@
         <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="N6" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.97</v>
+        <v>3.48</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="H8" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="I8" t="n">
         <v>1.05</v>
@@ -1313,10 +1313,10 @@
         <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="N8" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="G9" t="n">
-        <v>3.08</v>
+        <v>3.13</v>
       </c>
       <c r="H9" t="n">
-        <v>2.77</v>
+        <v>2.84</v>
       </c>
       <c r="I9" t="n">
         <v>1.09</v>
@@ -1417,16 +1417,16 @@
         <v>7</v>
       </c>
       <c r="K9" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="L9" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="M9" t="n">
         <v>2.4</v>
       </c>
       <c r="N9" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.53</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="G10" t="n">
-        <v>3.52</v>
+        <v>3.82</v>
       </c>
       <c r="H10" t="n">
-        <v>4.65</v>
+        <v>5.25</v>
       </c>
       <c r="I10" t="n">
         <v>1.07</v>
@@ -1533,10 +1533,10 @@
         <v>3.1</v>
       </c>
       <c r="M10" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="N10" t="n">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.29</v>
+        <v>2.4</v>
       </c>
       <c r="G11" t="n">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="H11" t="n">
-        <v>2.79</v>
+        <v>2.88</v>
       </c>
       <c r="I11" t="n">
         <v>1.08</v>
@@ -1643,10 +1643,10 @@
         <v>2.75</v>
       </c>
       <c r="M11" t="n">
-        <v>2.16</v>
+        <v>2.19</v>
       </c>
       <c r="N11" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -1685,13 +1685,13 @@
         <v>3</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AD11" t="n">
         <v>1.2</v>
